--- a/Wie wasserdicht ist Schweizer Käse/export.xlsx
+++ b/Wie wasserdicht ist Schweizer Käse/export.xlsx
@@ -5094,8 +5094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="F27" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8797,7 +8797,7 @@
         <v>1</v>
       </c>
       <c r="E196" s="2">
-        <f t="shared" ref="E196:E204" si="6">A196/100000000</f>
+        <f t="shared" ref="E196:E203" si="6">A196/100000000</f>
         <v>0.74299705999999999</v>
       </c>
       <c r="F196" s="2">
